--- a/doc/experiment_plan.xlsx
+++ b/doc/experiment_plan.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20349"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CE6F45-816A-46F0-BC7D-ED7602C429BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="mini5_experiment" sheetId="1" r:id="rId1"/>
+    <sheet name="43_experiment" sheetId="2" r:id="rId2"/>
+    <sheet name="noise_experiment" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +21,117 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+  <si>
+    <t>model\parameter_setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InceptionResNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B32 lre-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2 B27 lre-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2048 lre-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B32 lrExp (may on 43)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B32 lrExp (may on mini5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2 B32 lr0.49Exp(may on 43)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2 B27 lr0.49exp(may on mini5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1 B27 lr[DBF]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1 B32 lr[DBF](may on 43)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model(may Finetune)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAE(may be)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I-only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I+Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +154,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +439,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.73046875" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" customWidth="1"/>
+    <col min="5" max="5" width="18.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E612C8F-7766-40B1-A4DE-073CC66575C0}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.796875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" customWidth="1"/>
+    <col min="4" max="4" width="20.9296875" customWidth="1"/>
+    <col min="8" max="8" width="14.86328125" customWidth="1"/>
+    <col min="9" max="9" width="12.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A80AA3-1D18-4565-84C5-29F1F06E6F0E}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/experiment_plan.xlsx
+++ b/doc/experiment_plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CE6F45-816A-46F0-BC7D-ED7602C429BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D871F0AC-C181-4AD7-B129-5EAA7698ACF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>model\parameter_setting</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,14 @@
   </si>
   <si>
     <t>I+Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>👈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,10 +164,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -461,7 +469,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -475,10 +483,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -492,16 +500,16 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -520,7 +528,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -539,21 +547,21 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -570,27 +578,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -600,12 +609,21 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
@@ -616,22 +634,24 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -646,11 +666,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">

--- a/doc/experiment_plan.xlsx
+++ b/doc/experiment_plan.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D871F0AC-C181-4AD7-B129-5EAA7698ACF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4080E24A-B54E-436C-9555-9F481C3E0E65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mini5_experiment" sheetId="1" r:id="rId1"/>
     <sheet name="43_experiment" sheetId="2" r:id="rId2"/>
     <sheet name="noise_experiment" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,12 +21,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{2F5445EE-E25B-401A-A5BC-12C078D84F74}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Default is 1024</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
-  <si>
-    <t>model\parameter_setting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>LSTM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,22 +72,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B32 lre-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V2 B27 lre-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B2048 lre-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B32 lrExp (may on 43)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B32 lrExp (may on mini5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V2 B32 lr0.49Exp(may on 43)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,18 +92,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V1 B27 lr[DBF]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V1 B32 lr[DBF](may on 43)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Noise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Model(may Finetune)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +121,99 @@
   </si>
   <si>
     <t>Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter Settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bad. Too large batch size cause the model trapped in the local optimum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best. Go go 98%. Take an hour to finish training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancelled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2048 lre-3 hs2048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B32 lrExp (may on mini5) hs1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B32 lre-3 hs1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2048 lre-3 hs1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2048 lre-3 hs2048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B32 lre-3 hs2048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B32 lrExp (may on 43) hs2048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good. Can get 99.99% accuracy, only cost 1.5 hour(about 1 epoch)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Not good,  24 hours for 6 epoch, and the model is extremely unstable. The mean accuracy is not as good as B2048, though some times the accuracy can go up to 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No final test, discard this parameter group</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Good. 94.47% Accuracy. Need about 7h training to converge, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bad. Serious overfitting, while the training accuracy can't reach the LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1 B27 lr[e-3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good, Accuracy 99.26. Cost less than 17.5 hour to get best. But it's converge speed, training speed and stability is much more better than V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Best. 99.23 Accuracy. Cost 20hr to train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not good. 98.96 accuracy. 21.5hr training, Slow convergence.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,13 +242,72 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,12 +322,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -450,72 +617,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.73046875" customWidth="1"/>
-    <col min="4" max="4" width="22.19921875" customWidth="1"/>
+    <col min="2" max="2" width="44.06640625" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="41.9296875" customWidth="1"/>
     <col min="5" max="5" width="18.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -524,134 +714,161 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E612C8F-7766-40B1-A4DE-073CC66575C0}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E612C8F-7766-40B1-A4DE-073CC66575C0}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.796875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.19921875" customWidth="1"/>
-    <col min="4" max="4" width="20.9296875" customWidth="1"/>
-    <col min="8" max="8" width="14.86328125" customWidth="1"/>
+    <col min="2" max="2" width="39.265625" customWidth="1"/>
+    <col min="3" max="3" width="37.265625" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="8" max="8" width="54.53125" customWidth="1"/>
     <col min="9" max="9" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="A4" s="2"/>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.6">
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A7" s="2"/>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B2:D2"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -660,67 +877,67 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C10"/>
+      <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>-5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>15</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>20</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>25</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>30</v>
+        <v>-12</v>
       </c>
     </row>
   </sheetData>

--- a/doc/experiment_plan.xlsx
+++ b/doc/experiment_plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4080E24A-B54E-436C-9555-9F481C3E0E65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C28FD90-7917-4C07-9B3C-7739F1FD6C60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mini5_experiment" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>LSTM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,10 @@
   </si>
   <si>
     <t>Not good. 98.96 accuracy. 21.5hr training, Slow convergence.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bad. Less than 70%, No test.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,9 +329,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -335,6 +336,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -617,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -634,14 +638,14 @@
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -655,19 +659,19 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -681,24 +685,24 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
+      <c r="A7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -717,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E612C8F-7766-40B1-A4DE-073CC66575C0}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -738,22 +742,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
+      <c r="A3" s="9"/>
       <c r="B3" t="s">
         <v>23</v>
       </c>
@@ -774,36 +778,39 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
+      <c r="A6" s="9"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -821,25 +828,25 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G8" t="s">
@@ -850,10 +857,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
+      <c r="A9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
+      <c r="A10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -883,11 +890,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
